--- a/datain/termales_priorizados.xlsx
+++ b/datain/termales_priorizados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\DataDream\BetaGroup\Fontur - Termales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Documents\DataDream\BetaGroup\Fontur - Termales\maps_streamlit\datain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549295A0-0EE7-4A18-A341-21B30945AA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4724CD-6FF4-4758-82D3-35E1495F4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{69EB6F19-3A0A-4691-9632-AD90379C5B36}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="13125" windowHeight="9030" xr2:uid="{69EB6F19-3A0A-4691-9632-AD90379C5B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Termales" sheetId="1" r:id="rId1"/>
